--- a/回归分析.xlsx
+++ b/回归分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/945de69b06dfe2ac/Python/5回归模型/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{126FE36A-18B1-458E-91BB-871A4A9E18D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DA73D533-CD44-424C-BBA1-DF49D70953E3}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{126FE36A-18B1-458E-91BB-871A4A9E18D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{847F4829-52C0-BF43-A46B-91FBF6FC6E88}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="12460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="身高与体重" sheetId="36" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="终端销量" sheetId="30" r:id="rId5"/>
     <sheet name="计算机销售额" sheetId="29" r:id="rId6"/>
     <sheet name="广告价格与销量" sheetId="33" r:id="rId7"/>
-    <sheet name="酒店客流量" sheetId="34" r:id="rId8"/>
+    <sheet name="航空里程" sheetId="38" r:id="rId8"/>
+    <sheet name="酒店客流量" sheetId="34" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="65">
   <si>
     <t>时间</t>
     <phoneticPr fontId="0" type="Hiragana"/>
@@ -262,18 +263,27 @@
     <t>广告费用</t>
     <phoneticPr fontId="0" type="Hiragana"/>
   </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程（万）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="180" formatCode="mmmyyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -367,6 +377,26 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -485,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,6 +571,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="_DateRange" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1874,7 +1913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -5137,14 +5176,939 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE073652-00E8-2646-BC45-71D5926E8A22}">
+  <dimension ref="A1:B113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="27">
+        <v>37622</v>
+      </c>
+      <c r="B2" s="28">
+        <v>32.854790000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="27">
+        <v>37653</v>
+      </c>
+      <c r="B3" s="28">
+        <v>30.814268999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="27">
+        <v>37681</v>
+      </c>
+      <c r="B4" s="28">
+        <v>37.586654000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="27">
+        <v>37712</v>
+      </c>
+      <c r="B5" s="28">
+        <v>35.226398000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="27">
+        <v>37742</v>
+      </c>
+      <c r="B6" s="28">
+        <v>36.569670000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="27">
+        <v>37773</v>
+      </c>
+      <c r="B7" s="28">
+        <v>39.750216000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="27">
+        <v>37803</v>
+      </c>
+      <c r="B8" s="28">
+        <v>43.367508000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="27">
+        <v>37834</v>
+      </c>
+      <c r="B9" s="28">
+        <v>42.092669000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="27">
+        <v>37865</v>
+      </c>
+      <c r="B10" s="28">
+        <v>32.549731999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="27">
+        <v>37895</v>
+      </c>
+      <c r="B11" s="28">
+        <v>36.442428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="27">
+        <v>37926</v>
+      </c>
+      <c r="B12" s="28">
+        <v>34.350366000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="27">
+        <v>37956</v>
+      </c>
+      <c r="B13" s="28">
+        <v>37.389381999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="27">
+        <v>37987</v>
+      </c>
+      <c r="B14" s="28">
+        <v>33.537391999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="27">
+        <v>38018</v>
+      </c>
+      <c r="B15" s="28">
+        <v>33.909139000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="27">
+        <v>38047</v>
+      </c>
+      <c r="B16" s="28">
+        <v>40.805211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="27">
+        <v>38078</v>
+      </c>
+      <c r="B17" s="28">
+        <v>40.172829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="27">
+        <v>38108</v>
+      </c>
+      <c r="B18" s="28">
+        <v>39.671007000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="27">
+        <v>38139</v>
+      </c>
+      <c r="B19" s="28">
+        <v>43.652276999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="27">
+        <v>38169</v>
+      </c>
+      <c r="B20" s="28">
+        <v>46.262248999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="27">
+        <v>38200</v>
+      </c>
+      <c r="B21" s="28">
+        <v>44.701690999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="27">
+        <v>38231</v>
+      </c>
+      <c r="B22" s="28">
+        <v>35.470844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="27">
+        <v>38261</v>
+      </c>
+      <c r="B23" s="28">
+        <v>39.627851</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="27">
+        <v>38292</v>
+      </c>
+      <c r="B24" s="28">
+        <v>37.567115999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="27">
+        <v>38322</v>
+      </c>
+      <c r="B25" s="28">
+        <v>39.117677999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="27">
+        <v>38353</v>
+      </c>
+      <c r="B26" s="28">
+        <v>36.117688000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="27">
+        <v>38384</v>
+      </c>
+      <c r="B27" s="28">
+        <v>34.560837999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="27">
+        <v>38412</v>
+      </c>
+      <c r="B28" s="28">
+        <v>43.642223000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="27">
+        <v>38443</v>
+      </c>
+      <c r="B29" s="28">
+        <v>40.244599999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="27">
+        <v>38473</v>
+      </c>
+      <c r="B30" s="28">
+        <v>41.801557000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="27">
+        <v>38504</v>
+      </c>
+      <c r="B31" s="28">
+        <v>44.676734000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="27">
+        <v>38534</v>
+      </c>
+      <c r="B32" s="28">
+        <v>47.563113000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="27">
+        <v>38565</v>
+      </c>
+      <c r="B33" s="28">
+        <v>45.135361000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="27">
+        <v>38596</v>
+      </c>
+      <c r="B34" s="28">
+        <v>37.044905999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="27">
+        <v>38626</v>
+      </c>
+      <c r="B35" s="28">
+        <v>38.849763000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="27">
+        <v>38657</v>
+      </c>
+      <c r="B36" s="28">
+        <v>38.158242000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="27">
+        <v>38687</v>
+      </c>
+      <c r="B37" s="28">
+        <v>39.176167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="27">
+        <v>38718</v>
+      </c>
+      <c r="B38" s="28">
+        <v>36.677179000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="27">
+        <v>38749</v>
+      </c>
+      <c r="B39" s="28">
+        <v>34.745538000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="27">
+        <v>38777</v>
+      </c>
+      <c r="B40" s="28">
+        <v>42.892738999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="27">
+        <v>38808</v>
+      </c>
+      <c r="B41" s="28">
+        <v>41.296408999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="27">
+        <v>38838</v>
+      </c>
+      <c r="B42" s="28">
+        <v>41.489103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="27">
+        <v>38869</v>
+      </c>
+      <c r="B43" s="28">
+        <v>44.025655999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="27">
+        <v>38899</v>
+      </c>
+      <c r="B44" s="28">
+        <v>46.157221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="27">
+        <v>38930</v>
+      </c>
+      <c r="B45" s="28">
+        <v>44.152535</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="27">
+        <v>38961</v>
+      </c>
+      <c r="B46" s="28">
+        <v>36.489369000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="27">
+        <v>38991</v>
+      </c>
+      <c r="B47" s="28">
+        <v>39.684941999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="27">
+        <v>39022</v>
+      </c>
+      <c r="B48" s="28">
+        <v>38.673709000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="27">
+        <v>39052</v>
+      </c>
+      <c r="B49" s="28">
+        <v>39.616706999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="27">
+        <v>39083</v>
+      </c>
+      <c r="B50" s="28">
+        <v>36.918239999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="27">
+        <v>39114</v>
+      </c>
+      <c r="B51" s="28">
+        <v>34.504282000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="27">
+        <v>39142</v>
+      </c>
+      <c r="B52" s="28">
+        <v>42.899597</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="27">
+        <v>39173</v>
+      </c>
+      <c r="B53" s="28">
+        <v>41.367935000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="27">
+        <v>39203</v>
+      </c>
+      <c r="B54" s="28">
+        <v>42.213470999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="27">
+        <v>39234</v>
+      </c>
+      <c r="B55" s="28">
+        <v>44.496558999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="27">
+        <v>39264</v>
+      </c>
+      <c r="B56" s="28">
+        <v>46.468077000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="27">
+        <v>39295</v>
+      </c>
+      <c r="B57" s="28">
+        <v>45.760903999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="27">
+        <v>39326</v>
+      </c>
+      <c r="B58" s="28">
+        <v>37.075597999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="27">
+        <v>39356</v>
+      </c>
+      <c r="B59" s="28">
+        <v>39.961688000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="27">
+        <v>39387</v>
+      </c>
+      <c r="B60" s="28">
+        <v>38.386761</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="27">
+        <v>39417</v>
+      </c>
+      <c r="B61" s="28">
+        <v>38.287010000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="27">
+        <v>39448</v>
+      </c>
+      <c r="B62" s="28">
+        <v>37.492254000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="27">
+        <v>39479</v>
+      </c>
+      <c r="B63" s="28">
+        <v>36.855338000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="27">
+        <v>39508</v>
+      </c>
+      <c r="B64" s="28">
+        <v>44.201991</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="27">
+        <v>39539</v>
+      </c>
+      <c r="B65" s="28">
+        <v>40.888962999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="27">
+        <v>39569</v>
+      </c>
+      <c r="B66" s="28">
+        <v>42.591557999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="27">
+        <v>39600</v>
+      </c>
+      <c r="B67" s="28">
+        <v>44.660111000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="27">
+        <v>39630</v>
+      </c>
+      <c r="B68" s="28">
+        <v>46.490098000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="27">
+        <v>39661</v>
+      </c>
+      <c r="B69" s="28">
+        <v>44.969555</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="27">
+        <v>39692</v>
+      </c>
+      <c r="B70" s="28">
+        <v>34.883001999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="27">
+        <v>39722</v>
+      </c>
+      <c r="B71" s="28">
+        <v>38.128010000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="27">
+        <v>39753</v>
+      </c>
+      <c r="B72" s="28">
+        <v>34.270471000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="27">
+        <v>39783</v>
+      </c>
+      <c r="B73" s="28">
+        <v>37.156359000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="27">
+        <v>39814</v>
+      </c>
+      <c r="B74" s="28">
+        <v>33.303545999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="27">
+        <v>39845</v>
+      </c>
+      <c r="B75" s="28">
+        <v>31.687273999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="27">
+        <v>39873</v>
+      </c>
+      <c r="B76" s="28">
+        <v>39.056403000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="27">
+        <v>39904</v>
+      </c>
+      <c r="B77" s="28">
+        <v>38.136054999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="27">
+        <v>39934</v>
+      </c>
+      <c r="B78" s="28">
+        <v>38.408752999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="27">
+        <v>39965</v>
+      </c>
+      <c r="B79" s="28">
+        <v>41.145909000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="27">
+        <v>39995</v>
+      </c>
+      <c r="B80" s="28">
+        <v>44.215515000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="27">
+        <v>40026</v>
+      </c>
+      <c r="B81" s="28">
+        <v>42.397035000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="27">
+        <v>40057</v>
+      </c>
+      <c r="B82" s="28">
+        <v>34.675395999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="27">
+        <v>40087</v>
+      </c>
+      <c r="B83" s="28">
+        <v>37.318050999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="27">
+        <v>40118</v>
+      </c>
+      <c r="B84" s="28">
+        <v>34.576582000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="27">
+        <v>40148</v>
+      </c>
+      <c r="B85" s="28">
+        <v>36.459079000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="27">
+        <v>40179</v>
+      </c>
+      <c r="B86" s="28">
+        <v>33.487141000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="27">
+        <v>40210</v>
+      </c>
+      <c r="B87" s="28">
+        <v>30.718097</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="27">
+        <v>40238</v>
+      </c>
+      <c r="B88" s="28">
+        <v>39.369601000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="27">
+        <v>40269</v>
+      </c>
+      <c r="B89" s="28">
+        <v>37.762307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="27">
+        <v>40299</v>
+      </c>
+      <c r="B90" s="28">
+        <v>38.883682999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="27">
+        <v>40330</v>
+      </c>
+      <c r="B91" s="28">
+        <v>41.901958999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="27">
+        <v>40360</v>
+      </c>
+      <c r="B92" s="28">
+        <v>44.021861000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="27">
+        <v>40391</v>
+      </c>
+      <c r="B93" s="28">
+        <v>42.813205000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="27">
+        <v>40422</v>
+      </c>
+      <c r="B94" s="28">
+        <v>36.131604000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="27">
+        <v>40452</v>
+      </c>
+      <c r="B95" s="28">
+        <v>39.183461000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="27">
+        <v>40483</v>
+      </c>
+      <c r="B96" s="28">
+        <v>36.671543999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="27">
+        <v>40513</v>
+      </c>
+      <c r="B97" s="28">
+        <v>37.426385000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="27">
+        <v>40544</v>
+      </c>
+      <c r="B98" s="28">
+        <v>34.327419999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="27">
+        <v>40575</v>
+      </c>
+      <c r="B99" s="28">
+        <v>31.825085999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="27">
+        <v>40603</v>
+      </c>
+      <c r="B100" s="28">
+        <v>40.506780999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="27">
+        <v>40634</v>
+      </c>
+      <c r="B101" s="28">
+        <v>38.505752000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="27">
+        <v>40664</v>
+      </c>
+      <c r="B102" s="28">
+        <v>40.429592999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="27">
+        <v>40695</v>
+      </c>
+      <c r="B103" s="28">
+        <v>42.570238000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="27">
+        <v>40725</v>
+      </c>
+      <c r="B104" s="28">
+        <v>45.074086000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="27">
+        <v>40756</v>
+      </c>
+      <c r="B105" s="28">
+        <v>42.782321000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="6" customHeight="1">
+      <c r="A106" s="27">
+        <v>40787</v>
+      </c>
+      <c r="B106" s="28">
+        <v>36.698979000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="27">
+        <v>40817</v>
+      </c>
+      <c r="B107" s="28">
+        <v>38.703718000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="27">
+        <v>40848</v>
+      </c>
+      <c r="B108" s="28">
+        <v>36.827824</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="27">
+        <v>40878</v>
+      </c>
+      <c r="B109" s="28">
+        <v>37.493287000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="27">
+        <v>40909</v>
+      </c>
+      <c r="B110" s="28">
+        <v>34.313549999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="27">
+        <v>40940</v>
+      </c>
+      <c r="B111" s="28">
+        <v>33.264167999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="27">
+        <v>40969</v>
+      </c>
+      <c r="B112" s="28">
+        <v>40.781256999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="27">
+        <v>41000</v>
+      </c>
+      <c r="B113" s="28">
+        <v>38.806524000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
         <v>43</v>
       </c>
